--- a/mysql/volume/media/template/用户模板.xlsx
+++ b/mysql/volume/media/template/用户模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AWD\20231203-徐总的研发工作\上传数据参考模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AWD\20231203-徐总的研发工作\测试数据\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9FDF3E-FF16-4DC1-ABC7-B03839FCF7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E4ACD7-0284-49D6-9589-16F836764659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,188 +27,272 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>学号</t>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴霜</t>
+  </si>
+  <si>
+    <t>杨亚军</t>
+  </si>
+  <si>
+    <t>郝艳芳</t>
+  </si>
+  <si>
+    <t>王海亮</t>
+  </si>
+  <si>
+    <t>张宇杰</t>
+  </si>
+  <si>
+    <t>唐道光</t>
+  </si>
+  <si>
+    <t>秦鹏</t>
+  </si>
+  <si>
+    <t>刘亚翃</t>
+  </si>
+  <si>
+    <t>梁红</t>
+  </si>
+  <si>
+    <t>张  璇</t>
+  </si>
+  <si>
+    <t>14232720020705001X</t>
+  </si>
+  <si>
+    <t>信息安全与管理191班</t>
+  </si>
+  <si>
+    <t>15735526805</t>
+  </si>
+  <si>
+    <t>15235885385</t>
+  </si>
+  <si>
+    <t>341103200909263954</t>
+  </si>
+  <si>
+    <t>340121194608212508</t>
+  </si>
+  <si>
+    <t>150421202008311041</t>
+  </si>
+  <si>
+    <t>360102196702029797</t>
+  </si>
+  <si>
+    <t>511425199204164607</t>
+  </si>
+  <si>
+    <t>230224198803229871</t>
+  </si>
+  <si>
+    <t>451081194510100871</t>
+  </si>
+  <si>
+    <t>340222196501300066</t>
+  </si>
+  <si>
+    <t>220104195707136732</t>
+  </si>
+  <si>
+    <t>110115199103080792</t>
+  </si>
+  <si>
+    <t>n0137jv@gmail.com</t>
+  </si>
+  <si>
+    <t>5pi28z@icloud.com</t>
+  </si>
+  <si>
+    <t>y8gwi@protonmail.com</t>
+  </si>
+  <si>
+    <t>gkogb8@zohomail.com</t>
+  </si>
+  <si>
+    <t>qcb92zx@gmail.com</t>
+  </si>
+  <si>
+    <t>0kjukq@foxmail.com</t>
+  </si>
+  <si>
+    <t>xrs0e9@qq.com</t>
+  </si>
+  <si>
+    <t>2kux480o@sina.com</t>
+  </si>
+  <si>
+    <t>boz1yd9@163.com</t>
+  </si>
+  <si>
+    <t>rz75drf@126.com</t>
+  </si>
+  <si>
+    <t>qpk838s1@yahoo.com</t>
+  </si>
+  <si>
+    <t>李耀明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>612559</t>
+  </si>
+  <si>
+    <t>838971</t>
+  </si>
+  <si>
+    <t>826582</t>
+  </si>
+  <si>
+    <t>558552</t>
+  </si>
+  <si>
+    <t>941230</t>
+  </si>
+  <si>
+    <t>963923</t>
+  </si>
+  <si>
+    <t>536604</t>
+  </si>
+  <si>
+    <t>226899</t>
+  </si>
+  <si>
+    <t>562210</t>
+  </si>
+  <si>
+    <t>909622</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红河分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姓名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机号</t>
-  </si>
-  <si>
-    <t>身份证号</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴霜</t>
-  </si>
-  <si>
-    <t>杨亚军</t>
-  </si>
-  <si>
-    <t>郝艳芳</t>
-  </si>
-  <si>
-    <t>王海亮</t>
-  </si>
-  <si>
-    <t>张宇杰</t>
-  </si>
-  <si>
-    <t>唐道光</t>
-  </si>
-  <si>
-    <t>秦鹏</t>
-  </si>
-  <si>
-    <t>刘亚翃</t>
-  </si>
-  <si>
-    <t>梁红</t>
-  </si>
-  <si>
-    <t>张  璇</t>
-  </si>
-  <si>
-    <t>14232720020705001X</t>
-  </si>
-  <si>
-    <t>信息安全与管理191班</t>
-  </si>
-  <si>
-    <t>15735526805</t>
-  </si>
-  <si>
-    <t>15235885385</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>341103200909263954</t>
-  </si>
-  <si>
-    <t>340121194608212508</t>
-  </si>
-  <si>
-    <t>150421202008311041</t>
-  </si>
-  <si>
-    <t>360102196702029797</t>
-  </si>
-  <si>
-    <t>511425199204164607</t>
-  </si>
-  <si>
-    <t>230224198803229871</t>
-  </si>
-  <si>
-    <t>451081194510100871</t>
-  </si>
-  <si>
-    <t>340222196501300066</t>
-  </si>
-  <si>
-    <t>220104195707136732</t>
-  </si>
-  <si>
-    <t>110115199103080792</t>
-  </si>
-  <si>
-    <t>n0137jv@gmail.com</t>
-  </si>
-  <si>
-    <t>5pi28z@icloud.com</t>
-  </si>
-  <si>
-    <t>y8gwi@protonmail.com</t>
-  </si>
-  <si>
-    <t>gkogb8@zohomail.com</t>
-  </si>
-  <si>
-    <t>qcb92zx@gmail.com</t>
-  </si>
-  <si>
-    <t>0kjukq@foxmail.com</t>
-  </si>
-  <si>
-    <t>xrs0e9@qq.com</t>
-  </si>
-  <si>
-    <t>2kux480o@sina.com</t>
-  </si>
-  <si>
-    <t>boz1yd9@163.com</t>
-  </si>
-  <si>
-    <t>rz75drf@126.com</t>
-  </si>
-  <si>
-    <t>qpk838s1@yahoo.com</t>
-  </si>
-  <si>
-    <t>stu</t>
-  </si>
-  <si>
-    <t>李耀明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>身份</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>668910</t>
-  </si>
-  <si>
-    <t>612559</t>
-  </si>
-  <si>
-    <t>838971</t>
-  </si>
-  <si>
-    <t>826582</t>
-  </si>
-  <si>
-    <t>558552</t>
-  </si>
-  <si>
-    <t>941230</t>
-  </si>
-  <si>
-    <t>963923</t>
-  </si>
-  <si>
-    <t>536604</t>
-  </si>
-  <si>
-    <t>226899</t>
-  </si>
-  <si>
-    <t>562210</t>
-  </si>
-  <si>
-    <t>909622</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红河分公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +317,22 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -282,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,6 +397,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -580,9 +689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -597,34 +706,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>45</v>
+      <c r="G1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2">
         <v>17001</v>
@@ -636,99 +745,99 @@
         <v>15003515577</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>17002</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4">
         <v>13834600091</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>17003</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4">
         <v>13934248416</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>17004</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4">
         <v>13994205400</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>17005</v>
@@ -740,21 +849,21 @@
         <v>15935156258</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>17006</v>
@@ -766,99 +875,99 @@
         <v>18635595015</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>17007</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4">
         <v>15903439698</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>17008</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4">
         <v>13453178253</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>17009</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4">
         <v>18234132982</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2">
         <v>1707004101</v>
@@ -870,49 +979,49 @@
         <v>18696252610</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{1904FF84-6CD4-4E13-A6CE-DD7E2478085E}">
-      <formula1>"stu,tea"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{1904FF84-6CD4-4E13-A6CE-DD7E2478085E}">
+      <formula1>"学生,老师"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
